--- a/biology/Histoire de la zoologie et de la botanique/Eduard_Brandt/Eduard_Brandt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduard_Brandt/Eduard_Brandt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Karlovitch Brandt (Эдуард Карлович Брандт), né le 15 février 1839 à Saint-Pétersbourg et mort le 17 novembre 1891 à Saint-Pétersbourg, est un médecin et zoologiste russe d'ascendance allemande, auteur de nombreuses publications concernant l'anatomie comparée.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brandt poursuit ses études au fameux lycée allemand Sankt-Petri-Schule de Saint-Pétersbourg (1849-1856), puis entre à l'Académie médico-chirurgicale[1], dont il sort diplômé en 1862. Il s'intéresse particulièrement à la zoologie et à l'anatomie comparée. Il suit les cours d'anatomie comparée du professeur J. F. Brandt qu'il donne à l'Académie des sciences de Saint-Pétersbourg à la requête des étudiants de l'université impériale, ainsi que les cours de paléontologie donnés à l'université par le professeur Koutorgoï et ceux donnés par Lev Tsenkovski sur les embryophytes. Il étudie et procède aussi à des exercices pratiques dans le cabinet de ce dernier à propos des champignons, des lichens et des algues.
-Il s'intéresse également depuis l'enfance à l'entomologie et lorsqu'il est étudiant, il fréquente la Société entomologique de Russie[2], ce qui lui permet de parfaire ses connaissances. Il étudie la flore du gouvernement de Saint-Pétersbourg avec l'académicien Franz Josef Ruprecht et participe à des excursions botaniques avec le conservateur de l'Académie des sciences, Menshausen.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandt poursuit ses études au fameux lycée allemand Sankt-Petri-Schule de Saint-Pétersbourg (1849-1856), puis entre à l'Académie médico-chirurgicale, dont il sort diplômé en 1862. Il s'intéresse particulièrement à la zoologie et à l'anatomie comparée. Il suit les cours d'anatomie comparée du professeur J. F. Brandt qu'il donne à l'Académie des sciences de Saint-Pétersbourg à la requête des étudiants de l'université impériale, ainsi que les cours de paléontologie donnés à l'université par le professeur Koutorgoï et ceux donnés par Lev Tsenkovski sur les embryophytes. Il étudie et procède aussi à des exercices pratiques dans le cabinet de ce dernier à propos des champignons, des lichens et des algues.
+Il s'intéresse également depuis l'enfance à l'entomologie et lorsqu'il est étudiant, il fréquente la Société entomologique de Russie, ce qui lui permet de parfaire ses connaissances. Il étudie la flore du gouvernement de Saint-Pétersbourg avec l'académicien Franz Josef Ruprecht et participe à des excursions botaniques avec le conservateur de l'Académie des sciences, Menshausen.
 Brandt reçoit son titre de docteur en médecine en 1865 et en 1876 celui de magister en zoologie. Pendant son premier voyage à l'étranger en 1866, il étudie l'anatomie comparée auprès d'Émile Blanchard et d'Henri Milne-Edwards à Paris, et auprès d'Owen à Londres. Il étudie aussi de lui-même à Saint-Vaast-la-Hougue près de Cherbourg l'anatomie comparée de différentes classes d'invertébrés.
 Pour son deuxième voyage en 1869, il suit les leçons du professeur Leyckart en zoologie et embryologie médicales et s'adonne à des études d'anatomie comparée à Trieste. Ses voyages en 1873, 1876, 1879, 1880, 1881 et 1889 sont consacrés à ses propres travaux d'anatomie comparée.
 Eduard Brandt est nommé assistant à la chaire de zoologie et d'anatomie comparée de l'Académie médico-chirurgicale en 1863. Deux ans plus tard, il est privat-dozent dans ces mêmes domaines à la même chaire. Il est prosecteur l'année suivante. En 1873, il est nommé professeur extraordinaire à la chaire d'anatomie des animaux domestiques au département vétérinaire de l'Académie et chargé de dispenser des cours de zoologie et d'anatomie comparée au département de médecine. Un an plus tard, il est nommé à la chaire de zoologie et d'anatomie comparée. En 1878, il est nommé professeur ordinaire.
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eduard Brandt est l'auteur de plus de cinq cents publications, parmi lesquelles:
 « Исследования о зубной системе землероек » (Sorex Cov.), Saint-Pétersbourg, 1865 [Études sur le système dentaire des Soricidae];
